--- a/src/demos/zdemo_excel15#8.w3mi.data.xlsx
+++ b/src/demos/zdemo_excel15#8.w3mi.data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="A_range_with_sheet_visibility" localSheetId="0">Sheet1!$E$4:$E$5</definedName>
     <definedName name="range">Sheet1!$C$4:$C$8</definedName>
     <definedName name="A_range_with_a_name_that_is_longer_than_20_characters">Sheet1!$D$4:$D$5</definedName>
   </definedNames>
@@ -359,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="C1:E8"/>
+  <dimension ref="C4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" zoomScaleSheetLayoutView="100" workbookViewId="0" showGridLines="1" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,10 +368,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="1" spans="1:5">
       <c r=""/>
     </row>
-    <row r="4" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="4" spans="1:5">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -381,7 +382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="5" spans="1:5">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -392,17 +393,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="6" spans="1:5">
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="7" spans="1:5">
       <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="0.0000000000000000E+00">
+    <row r="8" spans="1:5">
       <c r="C8" t="s">
         <v>4</v>
       </c>
